--- a/docs/Lab01_ReviewReport.xlsx
+++ b/docs/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laptop\e\VVSS\CamiVVSS_ro2024-2025\Labs\Lab01\CheckListsAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\VVSS2025\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C988F33-E974-4516-BC95-27D0B68ECC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F97F2F-78B0-4400-A274-DAF040EFA483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -135,19 +135,540 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
+  </si>
+  <si>
+    <t>Mureșan Andreea-Maria</t>
+  </si>
+  <si>
+    <t>Năvădaru Călin-Nicolae</t>
+  </si>
+  <si>
+    <t>Nicolescu Alexandru-Constantin</t>
+  </si>
+  <si>
+    <t>Mureșan Andreea-Maria, Năvădaru Călin-Nicolae, Nicolescu Alexandru-Constantin</t>
+  </si>
+  <si>
+    <t>22.03.2025</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>Nu se stie ce informatii despre task pot fi modificate.</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>01 Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipseste functionalitate pentru marcare task ca activ/inactiv. </t>
+  </si>
+  <si>
+    <t>Nu se precizeaza nicio necesitate din partea utilizatorilor.</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza mediul de executie al programului, cat si modul de interactiune cu utilizatorul.</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Adaugarea exceptilor in corpul functiei.Adaugarea unor Custom Exceptions si error handling adecvat pentru fiecare metoda, cu custom error messages</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>Pentru constante trebuie sa se foloseasca nume formate doar din litere mari</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>Nu sunt folosite design pattern-uri</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>DateService.java(line31)</t>
+  </si>
+  <si>
+    <t>Add validation for input and exeption handler</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>Notificator.java(42)</t>
+  </si>
+  <si>
+    <t>Se poate scrie totul in acelasi if. Se poate condensa</t>
+  </si>
+  <si>
+    <t>NewEditController.java(147)</t>
+  </si>
+  <si>
+    <t>Verificarea se face pe baza currentTask in loc de clickedButton</t>
+  </si>
+  <si>
+    <t>Non-thread-safe fields should not be static</t>
+  </si>
+  <si>
+    <t>Task.java(19)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private static final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SimpleDateFormat </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">sdf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>SimpleDateFormat(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"yyyy-MM-dd HH:mm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SimpleDateFormat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">sdf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>SimpleDateFormat(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"yyyy-MM-dd HH:mm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>!(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">interval </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">== </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>interval !</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>Boolean checks should not be inverted.</t>
+  </si>
+  <si>
+    <t>Task.java(95)</t>
+  </si>
+  <si>
+    <t>Instance methods should not write to "static" fields</t>
+  </si>
+  <si>
+    <t>Controller.java(63)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mainTable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>tasks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Este nevoie de variabila mainTable ca statica intr-o alta sectiune de cod mai importanta.</t>
+  </si>
+  <si>
+    <t>Sections of code should not be commented out</t>
+  </si>
+  <si>
+    <r>
+      <t>Parent root = loader.load();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>//getClass().getResource("/fxml/new-edit-task.fxml"));</t>
+    </r>
+  </si>
+  <si>
+    <t>Controller.java(92)</t>
+  </si>
+  <si>
+    <t>Commented-out code distracts the focus from the actual executed code. It creates a noise that increases maintenance code.</t>
+  </si>
+  <si>
+    <t>Raw types should not be used</t>
+  </si>
+  <si>
+    <t>Controller.java(36)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public static </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TableView </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mainTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public static </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">TableView&lt;Task&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mainTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>SonarQube</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,6 +746,49 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCF8E6D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFC77DBB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFC77DBB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF2AACB8"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF7A7E85"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -326,79 +890,107 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,39 +1301,39 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.90625" style="6"/>
     <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
     <col min="3" max="4" width="16.26953125" style="6" customWidth="1"/>
     <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
     <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
+    <col min="9" max="9" width="27.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.453125" style="6" customWidth="1"/>
     <col min="11" max="16384" width="8.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -750,57 +1342,73 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="37">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="38">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="38">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -814,42 +1422,66 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="29">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.5">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -858,7 +1490,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -867,7 +1499,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -876,7 +1508,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -885,7 +1517,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -894,7 +1526,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -903,7 +1535,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -912,7 +1544,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -921,7 +1553,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -930,7 +1562,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -939,7 +1571,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -948,7 +1580,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -957,12 +1589,14 @@
       <c r="D25" s="3"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>0.45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -985,11 +1619,11 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.90625" style="6"/>
     <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
@@ -1000,24 +1634,24 @@
     <col min="10" max="16384" width="8.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1026,57 +1660,73 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="37">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="38">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="38">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1090,33 +1740,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="58">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1125,7 +1793,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1134,7 +1802,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1143,7 +1811,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1152,7 +1820,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1161,7 +1829,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1170,7 +1838,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1179,7 +1847,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1188,7 +1856,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1197,7 +1865,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1206,7 +1874,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1215,7 +1883,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1224,7 +1892,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1233,7 +1901,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1242,12 +1910,14 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5">
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1271,39 +1941,39 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D6" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="8.90625" style="6"/>
     <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1312,57 +1982,73 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="37">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="38">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="38">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1376,33 +2062,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="29">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1411,7 +2115,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1420,7 +2124,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1429,7 +2133,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1438,7 +2142,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1447,7 +2151,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1456,7 +2160,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1465,7 +2169,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1474,7 +2178,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1483,7 +2187,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1492,7 +2196,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1501,7 +2205,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1510,7 +2214,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1519,7 +2223,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1528,7 +2232,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1537,7 +2241,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1546,7 +2250,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1555,7 +2259,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1564,12 +2268,14 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5">
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>0.35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1592,41 +2298,43 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="2" max="2" width="7.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="6"/>
+    <col min="8" max="8" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1635,47 +2343,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="37">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="38">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="22"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="38">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="22"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1692,56 +2418,95 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1751,7 +2516,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1761,7 +2526,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1771,7 +2536,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1781,7 +2546,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1791,7 +2556,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1801,7 +2566,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1811,7 +2576,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1821,7 +2586,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1831,7 +2596,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1841,7 +2606,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1851,7 +2616,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1861,7 +2626,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1871,7 +2636,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1881,7 +2646,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1891,7 +2656,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1901,16 +2666,16 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="33" t="s">
+    <row r="32" spans="2:6">
+      <c r="C32" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F35" s="35"/>
+    <row r="35" spans="6:6">
+      <c r="F35" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
